--- a/biology/Zoologie/Bernache_de_Hutchins/Bernache_de_Hutchins.xlsx
+++ b/biology/Zoologie/Bernache_de_Hutchins/Bernache_de_Hutchins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Branta hutchinsii
 La bernache de Hutchins (Branta hutchinsii) n'est considérée comme une espèce à part entière que depuis 2004, elle était autrefois classée comme sous-espèce de la Bernache du Canada.
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La séparation de la Bernache du Canada et de la Bernache de Hutchins conduit à l'arrangement suivant des sous-espèces (d'après Alan P. Peterson) :
 Branta hutchinsii asiatica† Aldrich 1946 ;
@@ -520,7 +534,7 @@
 Branta hutchinsii leucopareia (Brandt) 1836 ;
 Branta hutchinsii minima Ridgway 1885 ;
 Branta hutchinsii taverneri Delacour 1951.
-Des travaux plus récents augmentent encore ce nombre d'espèces (et plus encore celui des sous-espèces) : 6[1] et même 15[2].
+Des travaux plus récents augmentent encore ce nombre d'espèces (et plus encore celui des sous-espèces) : 6 et même 15.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plumage est semblable à celui de la Bernache du Canada bien que légèrement plus sombre, la principale différence vient de la taille qui ne dépasse pas les 70 cm de longueur et les 140 cm d'envergure alors que la Bernache du Canada mesure jusqu'à 105 cm.
 Cette espèce se distingue aussi par ses cancanements très différents des cris des autres oies, ce qui lui a valu son nom anglais de cackling goose : oie caqueteuse.
@@ -581,7 +597,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce niche dans le Canada arctique, l'Alaska et les îles Aléoutiennes. Elle a été ré-introduite aux Îles Kouriles. Elle hiverne dans l'ouest et le sud des USA (principalement en Californie) et au Mexique.
 </t>
@@ -612,7 +630,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se reproduit dans la toundra.
 </t>
@@ -643,7 +663,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le comportement est identique à celui de la bernache du Canada.
 </t>
@@ -674,7 +696,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La bernache de Hutchins a une population estimée à 160 000 individus.
 </t>
@@ -705,7 +729,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est figurée sur un timbre du Japon paru le 25/11/1983 (60 y.). Il s'agit de la sous-espèce Branta hutchinsii leucopareia.
 </t>
